--- a/src/ExcelsiorAspose.Tests/Tests.NullsWithOverride.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.NullsWithOverride.verified.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$3</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -487,10 +489,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="5.71428571428571" customWidth="1"/>
+    <col min="1" max="1" width="10.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="8.71428571428571" customWidth="1"/>
     <col min="3" max="3" width="17.7142857142857" customWidth="1"/>
-    <col min="4" max="5" width="5.71428571428571" customWidth="1"/>
+    <col min="4" max="4" width="8.71428571428571" customWidth="1"/>
+    <col min="5" max="5" width="7.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.75">
@@ -535,6 +538,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/ExcelsiorAspose.Tests/Tests.NullsWithOverride.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.NullsWithOverride.verified.xlsx
@@ -496,7 +496,7 @@
     <col min="5" max="5" width="7.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75">
+    <row r="1" spans="1:5" ht="13" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75">
+    <row r="2" spans="1:5" ht="13" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>

--- a/src/ExcelsiorAspose.Tests/Tests.NullsWithOverride.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.NullsWithOverride.verified.xlsx
@@ -520,7 +520,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="12.75">
+    <row r="3" spans="1:5" ht="13" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/Tests.NullsWithOverride.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.NullsWithOverride.verified.xlsx
@@ -92,7 +92,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -489,14 +489,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="8.71428571428571" customWidth="1"/>
-    <col min="3" max="3" width="17.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="8.71428571428571" customWidth="1"/>
-    <col min="5" max="5" width="7.71428571428571" customWidth="1"/>
+    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="18.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="9.71428571428571" customWidth="1"/>
+    <col min="5" max="5" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" customHeight="1">
+    <row r="1" spans="1:5" ht="14" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,14 +513,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" customHeight="1">
+    <row r="2" spans="1:5" ht="14" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="13" customHeight="1">
+    <row r="3" spans="1:5" ht="14" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
